--- a/Projekat_Faza1_ver1/2b ELATEC budget - Horizon2020.xlsx
+++ b/Projekat_Faza1_ver1/2b ELATEC budget - Horizon2020.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naca\Desktop\usp\usp\Projekat_Faza1_ver1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCF6FDB-C61C-46C0-9783-A680C2605466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="765" windowWidth="21600" windowHeight="13080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="765" windowWidth="21600" windowHeight="13080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Detaljno budzet" sheetId="1" r:id="rId1"/>
@@ -19,6 +13,7 @@
     <sheet name="Subcontracting - budzet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,42 +30,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Kampen, Jan-Joris van:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Contributions of third parties to be budgeted as personell costs or other direct costs. No indirect costs on these costs when NOT used on the premises of the benificiary.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="93">
   <si>
@@ -356,11 +315,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -421,21 +380,6 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -678,48 +622,10 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -801,14 +707,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -817,8 +723,18 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -826,19 +742,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,7 +897,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -996,7 +940,7 @@
         <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +997,7 @@
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1130,7 +1074,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1182,7 +1126,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1376,20 +1320,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -1413,1150 +1357,1111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="L3" s="16"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D4" s="17"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="12" t="s">
+      <c r="K4" s="63"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="19">
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="5">
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D5" s="17"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="12" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="19">
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D6" s="17"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="12" t="s">
+      <c r="K6" s="63"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="20">
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="6">
         <v>0.7</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="13" t="s">
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="12" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="19">
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="O8" s="23"/>
+      <c r="J8" s="3"/>
+      <c r="L8" s="2"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="24"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="25"/>
-    </row>
-    <row r="13" spans="1:19" s="31" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" s="17" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="26" t="s">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="29" t="s">
+      <c r="O13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="29" t="s">
+      <c r="P13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="29" t="s">
+      <c r="Q13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="30" t="s">
+      <c r="R13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="S13" s="29" t="s">
+      <c r="S13" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="33">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="19">
         <v>1</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19">
         <v>1</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="20">
         <f t="shared" ref="I14:I23" si="0">+SUM(D14:H14)</f>
         <v>2</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="21">
         <f t="shared" ref="J14:J24" si="1">I14*3300</f>
         <v>6600</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="21">
         <v>12000</v>
       </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36">
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="22">
         <f>+$P$4*(J14+K14-N14)</f>
         <v>4650</v>
       </c>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35">
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21">
         <f t="shared" ref="Q14:Q23" si="2">+J14+K14+L14+M14+O14+P14</f>
         <v>23250</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="22">
         <f t="shared" ref="R14:R24" si="3">0.7*Q14</f>
         <v>16274.999999999998</v>
       </c>
-      <c r="S14" s="36">
+      <c r="S14" s="22">
         <f t="shared" ref="S14:S23" si="4">+Q14-R14</f>
         <v>6975.0000000000018</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="33">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="19">
         <v>2</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="19">
         <v>1</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="19">
         <v>1</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19">
         <v>1</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="21">
         <f t="shared" si="1"/>
         <v>16500</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="21">
         <v>3000</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="36">
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22">
         <f t="shared" ref="O15:O24" si="5">+$P$4*(J15+K15-N15)</f>
         <v>4875</v>
       </c>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35">
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21">
         <f t="shared" si="2"/>
         <v>24375</v>
       </c>
-      <c r="R15" s="36">
+      <c r="R15" s="22">
         <f t="shared" si="3"/>
         <v>17062.5</v>
       </c>
-      <c r="S15" s="36">
+      <c r="S15" s="22">
         <f t="shared" si="4"/>
         <v>7312.5</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="33">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="19">
         <v>2</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="19">
         <v>2</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="21">
         <f t="shared" si="1"/>
         <v>13200</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="21">
         <f>18000+6580</f>
         <v>24580</v>
       </c>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="36">
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="22">
         <f t="shared" si="5"/>
         <v>9445</v>
       </c>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35">
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21">
         <f t="shared" si="2"/>
         <v>47225</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="22">
         <f t="shared" si="3"/>
         <v>33057.5</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="22">
         <f t="shared" si="4"/>
         <v>14167.5</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="35">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="36">
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35">
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R17" s="36">
+      <c r="R17" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S17" s="36">
+      <c r="S17" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="33">
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="19">
         <v>1</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="19">
         <v>1</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19">
         <v>1</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34">
+      <c r="H18" s="19"/>
+      <c r="I18" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="21">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="21">
         <f>1352+900</f>
         <v>2252</v>
       </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="36">
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="22">
         <f t="shared" si="5"/>
         <v>3038</v>
       </c>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35">
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21">
         <f t="shared" si="2"/>
         <v>15190</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R18" s="22">
         <f t="shared" si="3"/>
         <v>10633</v>
       </c>
-      <c r="S18" s="36">
+      <c r="S18" s="22">
         <f t="shared" si="4"/>
         <v>4557</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="33">
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="19">
         <v>5</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="19">
         <v>3</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="19">
         <v>7</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="19">
         <v>2</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="19">
         <v>1</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="21">
         <f t="shared" si="1"/>
         <v>59400</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="21">
         <v>21350</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="36">
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="22">
         <f t="shared" si="5"/>
         <v>20187.5</v>
       </c>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35">
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21">
         <f t="shared" si="2"/>
         <v>100937.5</v>
       </c>
-      <c r="R19" s="36">
+      <c r="R19" s="22">
         <f t="shared" si="3"/>
         <v>70656.25</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="22">
         <f t="shared" si="4"/>
         <v>30281.25</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="35">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="36">
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35">
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="36">
+      <c r="R20" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S20" s="36">
+      <c r="S20" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="35">
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="36">
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35">
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R21" s="36">
+      <c r="R21" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S21" s="36">
+      <c r="S21" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="35">
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="36">
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35">
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="36">
+      <c r="R22" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S22" s="36">
+      <c r="S22" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="35">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="36">
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35">
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="36">
+      <c r="R23" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S23" s="36">
+      <c r="S23" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="36">
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="36">
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S24" s="36"/>
+      <c r="S24" s="22"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="33">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="19">
         <f t="shared" ref="D25:J25" si="6">SUM(D14:D23)</f>
         <v>11</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="19">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="19">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="19">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="19">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="20">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="23">
         <f t="shared" si="6"/>
         <v>105600</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="23">
         <f t="shared" ref="K25:S25" si="7">SUM(K14:K24)</f>
         <v>63182</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="23">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="23">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="23">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="23">
         <f t="shared" si="7"/>
         <v>42195.5</v>
       </c>
-      <c r="P25" s="37">
+      <c r="P25" s="23">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="23">
         <f t="shared" si="7"/>
         <v>210977.5</v>
       </c>
-      <c r="R25" s="37">
+      <c r="R25" s="23">
         <f t="shared" si="7"/>
         <v>147684.25</v>
       </c>
-      <c r="S25" s="37">
+      <c r="S25" s="23">
         <f t="shared" si="7"/>
         <v>63293.25</v>
       </c>
-      <c r="T25" s="38"/>
+      <c r="T25" s="24"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="41" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="37">
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="23">
         <f>IF(I25=0,0,(J25/I25))</f>
         <v>3300</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="S28" s="46"/>
+      <c r="A28" s="31"/>
+      <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
     </row>
     <row r="31" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
     </row>
     <row r="32" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="str">
+      <c r="A32" s="53" t="str">
         <f>CONCATENATE("participant"," ",J6)</f>
         <v>participant ELATEC</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="53"/>
+      <c r="C32" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
     </row>
     <row r="33" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="48" t="s">
+      <c r="B33" s="48"/>
+      <c r="C33" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="S33" s="46"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="S33" s="32"/>
     </row>
     <row r="34" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="49">
+      <c r="B34" s="48"/>
+      <c r="C34" s="35">
         <v>63182</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="S34" s="46"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="S35" s="46"/>
-    </row>
-    <row r="36" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="S35" s="32"/>
+    </row>
+    <row r="36" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
     </row>
     <row r="38" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="str">
+      <c r="A38" s="53" t="str">
         <f>CONCATENATE("participant"," ",C9)</f>
         <v xml:space="preserve">participant </v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="32" t="s">
+      <c r="B38" s="53"/>
+      <c r="C38" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
     </row>
     <row r="39" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="49">
-        <v>0</v>
-      </c>
-      <c r="D39" s="64" t="s">
+      <c r="B39" s="48"/>
+      <c r="C39" s="35">
+        <v>0</v>
+      </c>
+      <c r="D39" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="S39" s="46"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="S39" s="32"/>
     </row>
     <row r="40" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="65" t="s">
+      <c r="B40" s="48"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="S40" s="46"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="65" t="s">
+      <c r="B41" s="48"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="65"/>
-      <c r="S41" s="46"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="S41" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:P38"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A29:P29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="J12:R12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="J4:K4"/>
@@ -2564,6 +2469,45 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="M5:O5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="J12:R12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:P41"/>
   </mergeCells>
   <conditionalFormatting sqref="P4">
     <cfRule type="expression" dxfId="0" priority="2">
@@ -2571,7 +2515,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6">
       <formula1>"70%,100%"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2579,12 +2523,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P35"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -2600,768 +2543,768 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="54">
+      <c r="C2" s="67"/>
+      <c r="D2" s="40">
         <f>SUM(P5:P35)</f>
         <v>17910</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="162.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+    <row r="4" spans="2:16" ht="162" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="45" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
         <v>1</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="8">
         <v>10</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="8">
         <f>SUM(H5:L5)*630</f>
         <v>1260</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="8">
         <f>SUM(H5:L5)*M5*120</f>
         <v>2400</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="8">
         <f t="shared" ref="P5:P35" si="0">N5+O5</f>
         <v>3660</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="8">
         <v>2</v>
       </c>
-      <c r="I6" s="22">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22">
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
         <v>1</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="8">
         <v>1</v>
       </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
         <v>10</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="8">
         <f>SUM(H6:L6)*630</f>
         <v>2520</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="8">
         <f>SUM(H6:L6)*M6*120</f>
         <v>4800</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="8">
         <f t="shared" si="0"/>
         <v>7320</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="8">
         <v>1</v>
       </c>
-      <c r="I7" s="22">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="8">
         <v>1</v>
       </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
         <v>14</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="8">
         <f>SUM(H7:L7)*630</f>
         <v>1890</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="8">
         <f>SUM(H7:L7)*M7*120</f>
         <v>5040</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="8">
         <f t="shared" si="0"/>
         <v>6930</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3376,7 +3319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="95" workbookViewId="0">
@@ -3398,552 +3341,552 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="54">
+      <c r="C2" s="67"/>
+      <c r="D2" s="40">
         <f>SUM(I5:I35)</f>
         <v>63182</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="46" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="8">
         <v>12000</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="8">
         <f t="shared" ref="I5:I35" si="0">G5*H5</f>
         <v>12000</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="8">
         <v>250</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="8">
         <v>6</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="8">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="8">
         <v>150</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="8">
         <v>10</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="8">
         <v>329</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="8">
         <v>20</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="8">
         <f t="shared" si="0"/>
         <v>6580</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="8">
         <v>1200</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="8">
         <v>15</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="8">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="8">
         <v>169</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="8">
         <v>8</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="8">
         <f t="shared" si="0"/>
         <v>1352</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="47">
         <v>150</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="47">
         <v>6</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="8">
         <v>21350</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="8">
         <v>1</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>21350</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="22">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3958,7 +3901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I35"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -3980,440 +3923,440 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="54">
+      <c r="C2" s="67"/>
+      <c r="D2" s="40">
         <f>SUM(I5:I35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="46" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
         <f t="shared" ref="I5:I35" si="0">G5*H5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
